--- a/DEV/trunk/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/trunk/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="12075" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="12075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="byte" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="BigInteger" sheetId="4" r:id="rId3"/>
     <sheet name="BigDecimalValue" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -52,9 +52,6 @@
     <t>return sum(values);</t>
   </si>
   <si>
-    <t>Method ByteValue testQuaotient(ByteValue number, ByteValue divisor)</t>
-  </si>
-  <si>
     <t>return quaotient(number, divisor);</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>return avg(values);</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotient(ByteValue number, ByteValue divisor)</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -605,7 +605,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -613,28 +613,28 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +660,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -671,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -702,7 +702,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -710,15 +710,15 @@
     </row>
     <row r="6" spans="1:5">
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DEV/trunk/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/trunk/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -52,9 +52,6 @@
     <t>return sum(values);</t>
   </si>
   <si>
-    <t>return quaotient(number, divisor);</t>
-  </si>
-  <si>
     <t>return min(values);</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>Method LongValue testQuaotient(ByteValue number, ByteValue divisor)</t>
+  </si>
+  <si>
+    <t>return quotient(number, divisor);</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -595,7 +595,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -605,7 +605,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -613,28 +613,28 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +660,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -671,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -702,7 +702,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -710,15 +710,15 @@
     </row>
     <row r="6" spans="1:5">
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/DEV/trunk/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/trunk/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="12075" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="12075" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="byte" sheetId="1" r:id="rId1"/>
     <sheet name="ByteValue" sheetId="2" r:id="rId2"/>
     <sheet name="BigInteger" sheetId="4" r:id="rId3"/>
     <sheet name="BigDecimalValue" sheetId="3" r:id="rId4"/>
+    <sheet name="logical functions" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>C1</t>
   </si>
@@ -92,6 +93,12 @@
   </si>
   <si>
     <t>return quotient(number, divisor);</t>
+  </si>
+  <si>
+    <t>Method boolean checkOr()</t>
+  </si>
+  <si>
+    <t>return anyTrue(new boolean[]{true, false});</t>
   </si>
 </sst>
 </file>
@@ -594,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -727,4 +734,32 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C7:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DEV/trunk/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/trunk/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\DSVN\DEV\trunk\org.openl.rules\test\rules\helpers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="12075" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="12075" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="byte" sheetId="1" r:id="rId1"/>
-    <sheet name="ByteValue" sheetId="2" r:id="rId2"/>
-    <sheet name="BigInteger" sheetId="4" r:id="rId3"/>
-    <sheet name="BigDecimalValue" sheetId="3" r:id="rId4"/>
-    <sheet name="logical functions" sheetId="5" r:id="rId5"/>
+    <sheet name="MaxMinTests" sheetId="1" r:id="rId1"/>
+    <sheet name="Mod" sheetId="6" r:id="rId2"/>
+    <sheet name="Slice" sheetId="7" r:id="rId3"/>
+    <sheet name="Quotient" sheetId="2" r:id="rId4"/>
+    <sheet name="Sum" sheetId="4" r:id="rId5"/>
+    <sheet name="Avg" sheetId="3" r:id="rId6"/>
+    <sheet name="logical functions" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="180">
   <si>
     <t>C1</t>
   </si>
@@ -44,54 +51,18 @@
     <t>byte</t>
   </si>
   <si>
-    <t>Rules String testMaxByte(byte[] obj)</t>
-  </si>
-  <si>
-    <t>Method BigInteger testSum(BigInteger[] values)</t>
-  </si>
-  <si>
     <t>return sum(values);</t>
   </si>
   <si>
     <t>return min(values);</t>
   </si>
   <si>
-    <t>Method ByteValue testMin(ByteValue[] values)</t>
-  </si>
-  <si>
-    <t>// method to test sum method for BigInteger</t>
-  </si>
-  <si>
-    <t>// method to test quaotient for ByteValue</t>
-  </si>
-  <si>
-    <t>// method to test min for ByteValue</t>
-  </si>
-  <si>
-    <t>Tests to test rules helper methods for byte type</t>
-  </si>
-  <si>
-    <t>Tests to test rules helper methods for ByteValue type</t>
-  </si>
-  <si>
     <t>Tests to test rules helper methods for BigDecimalValue type</t>
   </si>
   <si>
-    <t>// method to test avg method for BigDecimalValue</t>
-  </si>
-  <si>
-    <t>Tests to test rules helper methods for BigInteger type</t>
-  </si>
-  <si>
-    <t>Method BigDecimalValue testAvg(BigDecimalValue[] values)</t>
-  </si>
-  <si>
     <t>return avg(values);</t>
   </si>
   <si>
-    <t>Method LongValue testQuaotient(ByteValue number, ByteValue divisor)</t>
-  </si>
-  <si>
     <t>return quotient(number, divisor);</t>
   </si>
   <si>
@@ -99,13 +70,508 @@
   </si>
   <si>
     <t>return anyTrue(new boolean[]{true, false});</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>9200000000000000000</t>
+  </si>
+  <si>
+    <t>9100000000000000009</t>
+  </si>
+  <si>
+    <t>3.40000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>2.40000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>Rules String testMaxBigInteger(BigInteger[] obj)</t>
+  </si>
+  <si>
+    <t>BigInteger</t>
+  </si>
+  <si>
+    <t>Rules String testMaxBigDecimal(BigDecimal[] obj)</t>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+  </si>
+  <si>
+    <t>Rules String testMaxByteType(byte[] obj)</t>
+  </si>
+  <si>
+    <t>Rules String testMaxLongType(long[] obj)</t>
+  </si>
+  <si>
+    <t>Rules String testMaxFloatType(float[] obj)</t>
+  </si>
+  <si>
+    <t>Rules String testMaxShortType(short[] obj)</t>
+  </si>
+  <si>
+    <t>Rules String testMaxIntType(int[] obj)</t>
+  </si>
+  <si>
+    <t>Rules String testMaxByte(java.lang.Byte[] obj)</t>
+  </si>
+  <si>
+    <t>Rules String testMaxLong(java.lang.Long[] obj)</t>
+  </si>
+  <si>
+    <t>Rules String testMaxShort(java.lang.Short[] obj)</t>
+  </si>
+  <si>
+    <t>Rules String testMaxFloat(java.lang.Float[] obj)</t>
+  </si>
+  <si>
+    <t>Rules String testMaxInt(java.lang.Integer[] obj)</t>
+  </si>
+  <si>
+    <t>java.lang.Integer</t>
+  </si>
+  <si>
+    <t>java.lang.Float</t>
+  </si>
+  <si>
+    <t>java.lang.Short</t>
+  </si>
+  <si>
+    <t>java.lang.Long</t>
+  </si>
+  <si>
+    <t>java.lang.Byte</t>
+  </si>
+  <si>
+    <t>Rules String testMinByte(java.lang.Byte[] obj)</t>
+  </si>
+  <si>
+    <t>Rules String testMinLong(java.lang.Long[] obj)</t>
+  </si>
+  <si>
+    <t>Rules String testMinShort(java.lang.Short[] obj)</t>
+  </si>
+  <si>
+    <t>Rules String testMinFloat(java.lang.Float[] obj)</t>
+  </si>
+  <si>
+    <t>Rules String testMinInt(java.lang.Integer[] obj)</t>
+  </si>
+  <si>
+    <t>Rules String testMinBigInteger(BigInteger[] obj)</t>
+  </si>
+  <si>
+    <t>Rules String testMinIntType(int[] obj)</t>
+  </si>
+  <si>
+    <t>Rules String testMinBigDecimal(BigDecimal[] obj)</t>
+  </si>
+  <si>
+    <t>Rules String testMinByteType(byte[] obj)</t>
+  </si>
+  <si>
+    <t>Rules String testMinLongType(long[] obj)</t>
+  </si>
+  <si>
+    <t>Rules String testMinShortType(short[] obj)</t>
+  </si>
+  <si>
+    <t>Rules String testMinFloatType(float[] obj)</t>
+  </si>
+  <si>
+    <t>min(obj)</t>
+  </si>
+  <si>
+    <t>Tests to test rules helper methods for Max and Min value of different types</t>
+  </si>
+  <si>
+    <t>Tables for Max test</t>
+  </si>
+  <si>
+    <t>Tables for Min test</t>
+  </si>
+  <si>
+    <t>Method java.lang.Byte testSumByte(java.lang.Byte[] values)</t>
+  </si>
+  <si>
+    <t>Method BigInteger testSumBigInteger(BigInteger[] values)</t>
+  </si>
+  <si>
+    <t>Method java.lang.Float testSumFloat(java.lang.Float[] values)</t>
+  </si>
+  <si>
+    <t>Method java.lang.Long testSumLong(java.lang.Long[] values)</t>
+  </si>
+  <si>
+    <t>Method java.lang.Short testSumShort(java.lang.Short[] values)</t>
+  </si>
+  <si>
+    <t>Method java.lang.Integer testSumInteger(java.lang.Integer[] values)</t>
+  </si>
+  <si>
+    <t>Method BigDecimal testSumBigDecimal(BigDecimal[] values)</t>
+  </si>
+  <si>
+    <t>Method int testSumIntegerType(int[] values)</t>
+  </si>
+  <si>
+    <t>Method short testSumShortType(short[] values)</t>
+  </si>
+  <si>
+    <t>Method long testSumLongType(long[] values)</t>
+  </si>
+  <si>
+    <t>Method float testSumFloatType(float[] values)</t>
+  </si>
+  <si>
+    <t>Method byte testSumByteType(byte[] values)</t>
+  </si>
+  <si>
+    <t>Tests to test rules helper methods for sum methods</t>
+  </si>
+  <si>
+    <t>Method BigIntegerValue testAvgBigInteger(BigIntegerValue[] values)</t>
+  </si>
+  <si>
+    <t>Method BigDecimalValue testAvgBigDecimal(BigDecimalValue[] values)</t>
+  </si>
+  <si>
+    <t>Method byte testAvgByteType(byte[] values)</t>
+  </si>
+  <si>
+    <t>Method short testAvgShortType(short[] values)</t>
+  </si>
+  <si>
+    <t>Method int testAvgIntegerType(int[] values)</t>
+  </si>
+  <si>
+    <t>Method float testAvgFloatType(float[] values)</t>
+  </si>
+  <si>
+    <t>Method double testAvgDoubleType(double[] values)</t>
+  </si>
+  <si>
+    <t>Method java.lang.Byte testAvgByte(java.lang.Byte[] values)</t>
+  </si>
+  <si>
+    <t>Method java.lang.Short testAvgShort(java.lang.Short[] values)</t>
+  </si>
+  <si>
+    <t>Method java.lang.Integer testAvgInteger(java.lang.Integer[] values)</t>
+  </si>
+  <si>
+    <t>Method long testAvgLongType(long[] values)</t>
+  </si>
+  <si>
+    <t>Method java.lang.Float testAvgFloat(java.lang.Float[] values)</t>
+  </si>
+  <si>
+    <t>Method java.lang.Double testAvgDouble(java.lang.Double[] values)</t>
+  </si>
+  <si>
+    <t>Method java.lang.Long testAvgLong(java.lang.Long[] values)</t>
+  </si>
+  <si>
+    <t>Tests to test rules helper methods for Quaotient method</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientByteValue(ByteValue number, ByteValue divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientShortValue(ShortValue number, ShortValue divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientIntegerValue(IntValue number, IntValue divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientLongValue(LongValue number, LongValue divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientFloatValue(FloatValue number, FloatValue divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientDoubleValue(DoubleValue number, DoubleValue divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientBigIntegerValue(BigIntegerValue number, BigIntegerValue divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientBigDecimalValue(BigDecimalValue number, BigDecimalValue divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientByte(Byte number, Byte divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientShort(Short number, Short divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientInteger(Integer number, Integer divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientLong(Long number, Long divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientFloat(Float number, Float divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientDouble(Double number, Double divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientBigInteger(BigInteger number, BigInteger divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientBigDecimal(BigDecimal number, BigDecimal divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientByteType(byte number, byte divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientShortType(short number, short divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientIntegerType(int number, int divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientLongType(long number, long divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientFloatType(float number, float divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testQuaotientDoubleType(double number, double divisor)</t>
+  </si>
+  <si>
+    <t>Method ByteValue testMinByteValue(ByteValue[] values)</t>
+  </si>
+  <si>
+    <t>Method ShortValue testMinShortValue(ShortValue[] values)</t>
+  </si>
+  <si>
+    <t>Method IntValue testMinIntegerValue(IntValue[] values)</t>
+  </si>
+  <si>
+    <t>Method LongValue testMinLongValue(LongValue[] values)</t>
+  </si>
+  <si>
+    <t>Method FloatValue testMinFloatValue(FloatValue[] values)</t>
+  </si>
+  <si>
+    <t>Method DoubleValue testMinDoubleValue(DoubleValue[] values)</t>
+  </si>
+  <si>
+    <t>Method BigIntegerValue testMinBigIntegerValue(BigIntegerValue[] values)</t>
+  </si>
+  <si>
+    <t>Method BigDecimalValue testMinBigDecimalValue(BigDecimalValue[] values)</t>
+  </si>
+  <si>
+    <t>Method ByteValue testMaxByteValue(ByteValue[] values)</t>
+  </si>
+  <si>
+    <t>Method ShortValue testMaxShortValue(ShortValue[] values)</t>
+  </si>
+  <si>
+    <t>Method IntValue testMaxIntegerValue(IntValue[] values)</t>
+  </si>
+  <si>
+    <t>Method LongValue testMaxLongValue(LongValue[] values)</t>
+  </si>
+  <si>
+    <t>Method FloatValue testMaxFloatValue(FloatValue[] values)</t>
+  </si>
+  <si>
+    <t>Method DoubleValue testMaxDoubleValue(DoubleValue[] values)</t>
+  </si>
+  <si>
+    <t>Method BigIntegerValue testMaxBigIntegerValue(BigIntegerValue[] values)</t>
+  </si>
+  <si>
+    <t>Method BigDecimalValue testMaxBigDecimalValue(BigDecimalValue[] values)</t>
+  </si>
+  <si>
+    <t>return max(values);</t>
+  </si>
+  <si>
+    <t>Tests to test rules helper methods for Mod methods</t>
+  </si>
+  <si>
+    <t>Method ByteValue testModByteValue(ByteValue number, ByteValue divisor)</t>
+  </si>
+  <si>
+    <t>Method ShortValue testModShortValue(ShortValue number, ShortValue divisor)</t>
+  </si>
+  <si>
+    <t>Method IntValue testModIntegerValue(IntValue number, IntValue divisor)</t>
+  </si>
+  <si>
+    <t>Method LongValue testModLongValue(LongValue number, LongValue divisor)</t>
+  </si>
+  <si>
+    <t>Method FloatValue testModFloatValue(FloatValue number, FloatValue divisor)</t>
+  </si>
+  <si>
+    <t>Method DoubleValue testModDoubleValue(DoubleValue number, DoubleValue divisor)</t>
+  </si>
+  <si>
+    <t>Method BigDecimalValue testModBigDecimalValue(BigDecimalValue number, BigDecimalValue divisor)</t>
+  </si>
+  <si>
+    <t>Method Byte testModByte(Byte number, Byte divisor)</t>
+  </si>
+  <si>
+    <t>Method Short testModShort(Short number, Short divisor)</t>
+  </si>
+  <si>
+    <t>Method Integer testModInteger(Integer number, Integer divisor)</t>
+  </si>
+  <si>
+    <t>Method Long testModLong(Long number, Long divisor)</t>
+  </si>
+  <si>
+    <t>Method Float testModFloat(Float number, Float divisor)</t>
+  </si>
+  <si>
+    <t>Method Double testModDouble(Double number, Double divisor)</t>
+  </si>
+  <si>
+    <t>Method BigDecimal testModBigDecimal(BigDecimal number, BigDecimal divisor)</t>
+  </si>
+  <si>
+    <t>return mod(number, divisor);</t>
+  </si>
+  <si>
+    <t>Method short testModShortType(short number, short divisor)</t>
+  </si>
+  <si>
+    <t>Method int testModIntegerType(int number, int divisor)</t>
+  </si>
+  <si>
+    <t>Method long testModLongType(long number, long divisor)</t>
+  </si>
+  <si>
+    <t>Method float testModFloatType(float number, float divisor)</t>
+  </si>
+  <si>
+    <t>Method double testModDoubleType(double number, double divisor)</t>
+  </si>
+  <si>
+    <t>Method BigIntegerValue testModBigIntegerValue(BigIntegerValue number, BigIntegerValue divisor)</t>
+  </si>
+  <si>
+    <t>Method BigInteger testModBigInteger(BigInteger number, BigInteger divisor)</t>
+  </si>
+  <si>
+    <t>Method byte testModByteType(byte number, byte divisor)</t>
+  </si>
+  <si>
+    <t>Tests to test rules helper methods for Slice methods</t>
+  </si>
+  <si>
+    <t>return slice(values, startIndex);</t>
+  </si>
+  <si>
+    <t>return slice(values, startIndex, endIndex);</t>
+  </si>
+  <si>
+    <t>Method Byte[] testSliceByte(Byte[] values, int startIndex)</t>
+  </si>
+  <si>
+    <t>Method Byte[] testSliceByte(Byte[] values, int startIndex, int endIndex)</t>
+  </si>
+  <si>
+    <t>Method Short[] testSliceShort(Short[] values, int startIndex)</t>
+  </si>
+  <si>
+    <t>Method Short[] testSliceShort(Short[] values, int startIndex, int endIndex)</t>
+  </si>
+  <si>
+    <t>Method Integer[] testSliceInteger(Integer[] values, int startIndex)</t>
+  </si>
+  <si>
+    <t>Method Integer[] testSliceInteger(Integer[] values, int startIndex, int endIndex)</t>
+  </si>
+  <si>
+    <t>Method Long[] testSliceLong(Long[] values, int startIndex)</t>
+  </si>
+  <si>
+    <t>Method Long[] testSliceLong(Long[] values, int startIndex, int endIndex)</t>
+  </si>
+  <si>
+    <t>Method Float[] testSliceFloat(Float[] values, int startIndex)</t>
+  </si>
+  <si>
+    <t>Method Float[] testSliceFloat(Float[] values, int startIndex, int endIndex)</t>
+  </si>
+  <si>
+    <t>Method BigInteger[] testSliceBigInteger(BigInteger[] values, int startIndex)</t>
+  </si>
+  <si>
+    <t>Method BigInteger[] testSliceBigInteger(BigInteger[] values, int startIndex, int endIndex)</t>
+  </si>
+  <si>
+    <t>Method BigDecimal[] testSliceBigDecimal(BigDecimal[] values, int startIndex)</t>
+  </si>
+  <si>
+    <t>Method BigDecimal[] testSliceBigDecimal(BigDecimal[] values, int startIndex, int endIndex)</t>
+  </si>
+  <si>
+    <t>Method Double[] testSliceDouble(Double[] values, int startIndex)</t>
+  </si>
+  <si>
+    <t>Method Double[] testSliceDouble(Double[] values, int startIndex, int endIndex)</t>
+  </si>
+  <si>
+    <t>Method byte[] testSliceByteType(byte[] values, int startIndex)</t>
+  </si>
+  <si>
+    <t>Method byte[] testSliceByteType(byte[] values, int startIndex, int endIndex)</t>
+  </si>
+  <si>
+    <t>Method short[] testSliceShortType(short[] values, int startIndex)</t>
+  </si>
+  <si>
+    <t>Method short[] testSliceShortType(short[] values, int startIndex, int endIndex)</t>
+  </si>
+  <si>
+    <t>Method int[] testSliceIntegerType(int[] values, int startIndex)</t>
+  </si>
+  <si>
+    <t>Method int[] testSliceIntegerType(int[] values, int startIndex, int endIndex)</t>
+  </si>
+  <si>
+    <t>Method long[] testSliceLongType(long[] values, int startIndex)</t>
+  </si>
+  <si>
+    <t>Method long[] testSliceLongType(long[] values, int startIndex, int endIndex)</t>
+  </si>
+  <si>
+    <t>Method float[] testSliceFloatType(float[] values, int startIndex)</t>
+  </si>
+  <si>
+    <t>Method float[] testSliceFloatType(float[] values, int startIndex, int endIndex)</t>
+  </si>
+  <si>
+    <t>Method double[] testSliceDoubleType(double[] values, int startIndex)</t>
+  </si>
+  <si>
+    <t>Method double[] testSliceDoubleType(double[] values, int startIndex, int endIndex)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +594,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +653,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -206,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -217,7 +698,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -229,6 +716,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -275,7 +770,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,9 +802,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,6 +837,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -516,81 +1013,1238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+    <col min="9" max="9" width="64.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="I6" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="I9" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>-128</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <v>127</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="I15" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="I18" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
+        <v>32767</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="3">
+        <v>-32768</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="I24" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="I27" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="3">
+        <v>2147483647</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="3">
+        <v>-2147483648</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>123</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="C5" s="1" t="s">
+      <c r="D35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="3">
+        <v>2147483647</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="3">
+        <v>-2147483648</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="3">
+        <v>123</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F39" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G39" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="C6" s="1" t="s">
+      <c r="F42" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="C7" s="1" t="s">
+      <c r="D43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="C8" s="2" t="s">
+      <c r="D44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="C9" s="3">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="F45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="3">
+        <v>-128</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="C10" s="3">
+      <c r="F46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="3">
+        <v>127</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="3">
+        <v>32767</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="3">
+        <v>-32768</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F57" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C60" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C62" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="I63" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="I66" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C67" s="3">
+        <v>-128</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C68" s="3">
+        <v>127</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F69" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I70" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C71" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="I72" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="I75" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C76" s="3">
+        <v>32767</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C77" s="3">
+        <v>-32768</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F78" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I79" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C80" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="I81" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="F82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G84" s="1"/>
+      <c r="I84" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C85" s="3">
+        <v>2147483647</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C86" s="3">
+        <v>-2147483648</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="3">
+        <v>123</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C89" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G90" s="7"/>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C94" s="3">
+        <v>2147483647</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C95" s="3">
+        <v>-2147483648</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" s="3">
+        <v>123</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="3">
+        <v>-128</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="3">
+        <v>127</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F105" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G108" s="7"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="3">
+        <v>32767</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="3">
+        <v>-32768</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F114" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C4:D4"/>
+  <mergeCells count="27">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F33:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -598,50 +2252,216 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="64.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" customWidth="1"/>
+    <col min="5" max="5" width="64.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="4" t="s">
-        <v>11</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -653,37 +2473,258 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" customWidth="1"/>
+    <col min="5" max="5" width="64.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="C7" s="4" t="s">
-        <v>10</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -695,37 +2736,201 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B36" sqref="B36:B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="55.5703125" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" customWidth="1"/>
+    <col min="4" max="4" width="64.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="D7" s="4" t="s">
-        <v>22</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -737,26 +2942,302 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="70.140625" customWidth="1"/>
+    <col min="5" max="5" width="70.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="55.5703125" customWidth="1"/>
+    <col min="6" max="6" width="55.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:3">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/DEV/trunk/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/trunk/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -9,23 +9,29 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="12075" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="12075" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="MaxMinTests" sheetId="1" r:id="rId1"/>
     <sheet name="Mod" sheetId="6" r:id="rId2"/>
     <sheet name="Slice" sheetId="7" r:id="rId3"/>
-    <sheet name="Quotient" sheetId="2" r:id="rId4"/>
-    <sheet name="Sum" sheetId="4" r:id="rId5"/>
-    <sheet name="Avg" sheetId="3" r:id="rId6"/>
-    <sheet name="logical functions" sheetId="5" r:id="rId7"/>
+    <sheet name="Sort" sheetId="8" r:id="rId4"/>
+    <sheet name="Contains" sheetId="9" r:id="rId5"/>
+    <sheet name="IndexOf" sheetId="10" r:id="rId6"/>
+    <sheet name="noNulls" sheetId="11" r:id="rId7"/>
+    <sheet name="error and format" sheetId="12" r:id="rId8"/>
+    <sheet name="Quotient" sheetId="2" r:id="rId9"/>
+    <sheet name="Sum" sheetId="4" r:id="rId10"/>
+    <sheet name="Avg" sheetId="3" r:id="rId11"/>
+    <sheet name="logical functions" sheetId="5" r:id="rId12"/>
+    <sheet name="Differents" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="259">
   <si>
     <t>C1</t>
   </si>
@@ -565,6 +571,243 @@
   </si>
   <si>
     <t>Method double[] testSliceDoubleType(double[] values, int startIndex, int endIndex)</t>
+  </si>
+  <si>
+    <t>Tests to test rules helper methods for Sort methods</t>
+  </si>
+  <si>
+    <t>Method Byte[] testSortByte(Byte[] values)</t>
+  </si>
+  <si>
+    <t>return sort(values);</t>
+  </si>
+  <si>
+    <t>Method Short[] testSortShort(Short[] values)</t>
+  </si>
+  <si>
+    <t>Method Integer[] testSortInteger(Integer[] values)</t>
+  </si>
+  <si>
+    <t>Method Long[] testSortLong(Long[] values)</t>
+  </si>
+  <si>
+    <t>Method Float[] testSortFloat(Float[] values)</t>
+  </si>
+  <si>
+    <t>Method Double[] testSortDouble(Double[] values)</t>
+  </si>
+  <si>
+    <t>Method BigDecimal[] testSortBigDecimal(BigDecimal[] values)</t>
+  </si>
+  <si>
+    <t>Method BigInteger[] testSortBigInteger(BigInteger[] values)</t>
+  </si>
+  <si>
+    <t>Method byte[] testSortByteType(byte[] values)</t>
+  </si>
+  <si>
+    <t>Method short[] testSortShortType(short[] values)</t>
+  </si>
+  <si>
+    <t>Method int[] testSortIntegerType(int[] values)</t>
+  </si>
+  <si>
+    <t>Method long[] testSortLongType(long[] values)</t>
+  </si>
+  <si>
+    <t>Method float[] testSortFloatType(float[] values)</t>
+  </si>
+  <si>
+    <t>Method double[] testSortDoubleType(double[] values)</t>
+  </si>
+  <si>
+    <t>Method ByteValue[] testSortByteValue(ByteValue[] values)</t>
+  </si>
+  <si>
+    <t>Method ShortValue[] testSortShortValue(ShortValue[] values)</t>
+  </si>
+  <si>
+    <t>Method IntValue[] testSortIntegerValue(IntValue[] values)</t>
+  </si>
+  <si>
+    <t>Method LongValue[] testSortLongValue(LongValue[] values)</t>
+  </si>
+  <si>
+    <t>Method FloatValue[] testSortFloatValue(FloatValue[] values)</t>
+  </si>
+  <si>
+    <t>Method DoubleValue[] testSortDoubleValue(DoubleValue[] values)</t>
+  </si>
+  <si>
+    <t>Method BigIntegerValue[] testSortBigIntegerValue(BigIntegerValue[] values)</t>
+  </si>
+  <si>
+    <t>Method BigDecimalValue[] testSortBigDecimalValue(BigDecimalValue[] values)</t>
+  </si>
+  <si>
+    <t>Method String[] testSortString(String[] values)</t>
+  </si>
+  <si>
+    <t>Method StringValue[] testSortStringValue(StringValue[] values)</t>
+  </si>
+  <si>
+    <t>Method Date[] testSortDate(Date[] values)</t>
+  </si>
+  <si>
+    <t>Method ObjectValue[] testSortObjectValue(ObjectValue[] values)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsObjectInObjectArr(Object[] searchIn, Object searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsIntegerInIntegerArr(int[] searchIn, int searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsLongInLongArr(long[] searchIn, long searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsByteInByteArr(byte[] searchIn, byte searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsShortInShortArr(short[] searchIn, short searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsCharInCharArr(char[] searchIn, char searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsFloatInFloatArr(float[] searchIn, float searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsDoubleInDoubleArr(double[] searchIn, double searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsBoolInBoolArr(boolean[] searchIn, boolean searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsObjectArrInObjectArr(Object[] searchIn, Object[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsIntegerArrInIntegerArr(int[] searchIn, int[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsLongArrInLongArr(long[] searchIn, long[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsByteArrInByteArr(byte[] searchIn, byte[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsShortArrInShortArr(short[] searchIn, short[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsFloatArrInFloatArr(float[] searchIn, float[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsDoubleArrInDoubleArr(double[] searchIn, double[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsCharArrInCharArr(char[] searchIn, char[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsBoolArrInBoolArr(boolean[] searchIn, boolean[] searchFor)</t>
+  </si>
+  <si>
+    <t>return contains(searchIn, searchFor);</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfObject(Object[] searchIn, Object searchFor)</t>
+  </si>
+  <si>
+    <t>return indexOf(searchIn, searchFor);</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfInteger(int[] searchIn, int searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfLong(long[] searchIn, long searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfByte(byte[] searchIn, byte searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfShort(short[] searchIn, short searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfChar(char[] searchIn, char searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfFloat(float[] searchIn, float searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfDouble(double[] searchIn, double searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfBool(boolean[] searchIn, boolean searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testNoNullsObject(Object[] searchIn)</t>
+  </si>
+  <si>
+    <t>return noNulls(searchIn);</t>
+  </si>
+  <si>
+    <t>return error(message);</t>
+  </si>
+  <si>
+    <t>Method void testError(String message)</t>
+  </si>
+  <si>
+    <t>return error(e);</t>
+  </si>
+  <si>
+    <t>Method void testErrorThrowable(Throwable e) throws Throwable</t>
+  </si>
+  <si>
+    <t>return format(num);</t>
+  </si>
+  <si>
+    <t>Method String formatDouble(double num)</t>
+  </si>
+  <si>
+    <t>Method String formatDoubleWithFrm(double num, String format)</t>
+  </si>
+  <si>
+    <t>return format(num, format);</t>
+  </si>
+  <si>
+    <t>Method String[] testIntersectionStringArr(String[] searchIn, String[] searchFor)</t>
+  </si>
+  <si>
+    <t>return intersection(searchIn, searchFor);</t>
+  </si>
+  <si>
+    <t>return absMonth(date);</t>
+  </si>
+  <si>
+    <t>Method int testAbsMonth(Date date)</t>
+  </si>
+  <si>
+    <t>Method int testAbsQuarter(Date date)</t>
+  </si>
+  <si>
+    <t>return absQuarter(date);</t>
+  </si>
+  <si>
+    <t>Method int testDiffDate(Date date1, Date date2)</t>
+  </si>
+  <si>
+    <t>return dayDiff(date1, date2);</t>
+  </si>
+  <si>
+    <t>Method int testDayOfMonth(Date date1)</t>
+  </si>
+  <si>
+    <t>return dayOfMonth(date1);</t>
+  </si>
+  <si>
+    <t>return firstDateOfQuarter(date1);</t>
+  </si>
+  <si>
+    <t>Method Date testFirstDayOfQuarter(int date1)</t>
   </si>
 </sst>
 </file>
@@ -604,7 +847,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,6 +902,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -687,7 +936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -701,15 +950,17 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1031,27 +1282,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -1060,10 +1311,10 @@
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="I6" s="5" t="s">
         <v>108</v>
       </c>
@@ -1156,10 +1407,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -1168,10 +1419,10 @@
       <c r="D15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="8"/>
       <c r="I15" s="5" t="s">
         <v>111</v>
       </c>
@@ -1264,10 +1515,10 @@
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
@@ -1276,10 +1527,10 @@
       <c r="D24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="8"/>
       <c r="I24" s="5" t="s">
         <v>114</v>
       </c>
@@ -1364,10 +1615,10 @@
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
@@ -1376,10 +1627,10 @@
       <c r="D33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="7"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
@@ -1452,10 +1703,10 @@
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="7"/>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
@@ -1464,10 +1715,10 @@
       <c r="D42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
@@ -1540,10 +1791,10 @@
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="7"/>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
@@ -1552,10 +1803,10 @@
       <c r="D51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="7"/>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
@@ -1628,19 +1879,19 @@
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="7"/>
+      <c r="D62" s="8"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
@@ -1649,10 +1900,10 @@
       <c r="D63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G63" s="7"/>
+      <c r="G63" s="8"/>
       <c r="I63" s="5" t="s">
         <v>116</v>
       </c>
@@ -1745,10 +1996,10 @@
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="7"/>
+      <c r="D71" s="8"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
@@ -1757,10 +2008,10 @@
       <c r="D72" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G72" s="7"/>
+      <c r="G72" s="8"/>
       <c r="I72" s="5" t="s">
         <v>119</v>
       </c>
@@ -1853,10 +2104,10 @@
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D80" s="7"/>
+      <c r="D80" s="8"/>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
@@ -1865,10 +2116,10 @@
       <c r="D81" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G81" s="7"/>
+      <c r="G81" s="8"/>
       <c r="I81" s="5" t="s">
         <v>122</v>
       </c>
@@ -1953,10 +2204,10 @@
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D89" s="7"/>
+      <c r="D89" s="8"/>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="s">
@@ -1965,10 +2216,10 @@
       <c r="D90" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G90" s="7"/>
+      <c r="G90" s="8"/>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
@@ -2041,10 +2292,10 @@
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D98" s="7"/>
+      <c r="D98" s="8"/>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
@@ -2053,10 +2304,10 @@
       <c r="D99" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G99" s="7"/>
+      <c r="G99" s="8"/>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
@@ -2129,10 +2380,10 @@
       </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D107" s="7"/>
+      <c r="D107" s="8"/>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
@@ -2141,10 +2392,10 @@
       <c r="D108" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F108" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G108" s="7"/>
+      <c r="G108" s="8"/>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
@@ -2218,17 +2469,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F24:G24"/>
     <mergeCell ref="C107:D107"/>
     <mergeCell ref="F108:G108"/>
     <mergeCell ref="C3:G3"/>
@@ -2245,9 +2485,402 @@
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="F72:G72"/>
     <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="70.140625" customWidth="1"/>
+    <col min="5" max="5" width="70.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="55.5703125" customWidth="1"/>
+    <col min="6" max="6" width="55.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="73.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2269,12 +2902,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
@@ -2476,8 +3109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2488,12 +3121,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
@@ -2736,6 +3369,631 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" customWidth="1"/>
+    <col min="5" max="5" width="64.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="73.42578125" customWidth="1"/>
+    <col min="5" max="5" width="83.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="73.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="73.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="73.42578125" customWidth="1"/>
+    <col min="4" max="4" width="73.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
@@ -2750,12 +4008,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
@@ -2939,308 +4197,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="70.140625" customWidth="1"/>
-    <col min="5" max="5" width="70.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="55.5703125" customWidth="1"/>
-    <col min="6" max="6" width="55.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DEV/trunk/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/trunk/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="267">
   <si>
     <t>C1</t>
   </si>
@@ -808,6 +808,30 @@
   </si>
   <si>
     <t>Method Date testFirstDayOfQuarter(int date1)</t>
+  </si>
+  <si>
+    <t>Method Date testLastDayOfQuarter(int date1)</t>
+  </si>
+  <si>
+    <t>return lastDateOfQuarter(date1);</t>
+  </si>
+  <si>
+    <t>return lastDayOfMonth(date1);</t>
+  </si>
+  <si>
+    <t>Method int testLastDayOfMonth(Date date1)</t>
+  </si>
+  <si>
+    <t>Method int testGetMonth(Date date1)</t>
+  </si>
+  <si>
+    <t>return month(date1);</t>
+  </si>
+  <si>
+    <t>Method int testMonthDiff(Date date1, Date date2)</t>
+  </si>
+  <si>
+    <t>return monthDiff(date1, date2);</t>
   </si>
 </sst>
 </file>
@@ -2808,10 +2832,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B18"/>
+  <dimension ref="B2:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2877,6 +2901,46 @@
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/DEV/trunk/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/trunk/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="285">
   <si>
     <t>C1</t>
   </si>
@@ -832,6 +832,60 @@
   </si>
   <si>
     <t>return monthDiff(date1, date2);</t>
+  </si>
+  <si>
+    <t>Method int testYearDiff(Date date1, Date date2)</t>
+  </si>
+  <si>
+    <t>return yearDiff(date1, date2);</t>
+  </si>
+  <si>
+    <t>Method int testWeekDiff(Date date1, Date date2)</t>
+  </si>
+  <si>
+    <t>return weekDiff(date1, date2);</t>
+  </si>
+  <si>
+    <t>Method int testQuarter(Date date1)</t>
+  </si>
+  <si>
+    <t>return quarter(date1);</t>
+  </si>
+  <si>
+    <t>Method int testYear(Date date1)</t>
+  </si>
+  <si>
+    <t>return year(date1);</t>
+  </si>
+  <si>
+    <t>Method int testDayOfWeek(Date date1)</t>
+  </si>
+  <si>
+    <t>return dayOfWeek(date1);</t>
+  </si>
+  <si>
+    <t>Method int testDayOfYear(Date date1)</t>
+  </si>
+  <si>
+    <t>return dayOfYear(date1);</t>
+  </si>
+  <si>
+    <t>Method int testWeekOfYear(Date date1)</t>
+  </si>
+  <si>
+    <t>return weekOfYear(date1);</t>
+  </si>
+  <si>
+    <t>Method int testWeekOfMonth(Date date1)</t>
+  </si>
+  <si>
+    <t>return weekOfMonth(date1);</t>
+  </si>
+  <si>
+    <t>Method int testSecond(Date date1)</t>
+  </si>
+  <si>
+    <t>return second(date1);</t>
   </si>
 </sst>
 </file>
@@ -2832,10 +2886,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B30"/>
+  <dimension ref="B2:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2941,6 +2995,96 @@
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="11" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/DEV/trunk/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/trunk/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="12" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="22" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="MaxMinTests" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,14 +24,20 @@
     <sheet name="Product" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Logical" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="Round" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="Sheet17" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="MaxMinTests2" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Add" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="AddAll" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="Remove" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="Empty" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="Sheet22" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="small and big" sheetId="23" state="visible" r:id="rId24"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="495">
   <si>
     <t>Tests to test rules helper methods for Max and Min value of different types</t>
   </si>
@@ -978,6 +984,24 @@
     <t>Method float testFloatCopySign(float x, float y)</t>
   </si>
   <si>
+    <t>Method double testCos(double x)</t>
+  </si>
+  <si>
+    <t>return cos(x);</t>
+  </si>
+  <si>
+    <t>Method double testToDegrees(double x)</t>
+  </si>
+  <si>
+    <t>return toDegrees(x);</t>
+  </si>
+  <si>
+    <t>Method double testToRadians(double x)</t>
+  </si>
+  <si>
+    <t>return toRadians(x);</t>
+  </si>
+  <si>
     <t>Method double testByteTypeProduct(byte[] inputArray)</t>
   </si>
   <si>
@@ -1084,6 +1108,420 @@
   </si>
   <si>
     <t>Method BigDecimal testBigDecimalScaleRoundRoundMethod(BigDecimal num, int scale, int roundMethod)</t>
+  </si>
+  <si>
+    <t>Method int testIntegerTypeMax(int x, int y)</t>
+  </si>
+  <si>
+    <t>Method int testIntegerTypeMin(int x, int y)</t>
+  </si>
+  <si>
+    <t>return max(x, y);</t>
+  </si>
+  <si>
+    <t>return min(x, y);</t>
+  </si>
+  <si>
+    <t>Method double testDoubleTypeMax(double x, double y)</t>
+  </si>
+  <si>
+    <t>Method double testDoubleTypeMin(double x, double y)</t>
+  </si>
+  <si>
+    <t>Method float testFloatTypeMax(float x, float y)</t>
+  </si>
+  <si>
+    <t>Method float testFloatTypeMin(float x, float y)</t>
+  </si>
+  <si>
+    <t>Method long testLongTypeMax(long x, long y)</t>
+  </si>
+  <si>
+    <t>Method long testLongTypeMin(long x, long y)</t>
+  </si>
+  <si>
+    <t>Method Integer testIntegerMax(Integer x, Integer y)</t>
+  </si>
+  <si>
+    <t>Method Integer testIntegerMin(Integer x, Integer y)</t>
+  </si>
+  <si>
+    <t>Method Double testDoubleMax(Double x, Double y)</t>
+  </si>
+  <si>
+    <t>Method Double testDoubleMin(Double x, Double y)</t>
+  </si>
+  <si>
+    <t>Method Float testFloatMax(Float x, Float y)</t>
+  </si>
+  <si>
+    <t>Method Float testFloatMin(Float x, Float y)</t>
+  </si>
+  <si>
+    <t>Method Long testLongMax(Long x, Long y)</t>
+  </si>
+  <si>
+    <t>Method Long testLongMin(Long x, Long y)</t>
+  </si>
+  <si>
+    <t>Method BigInteger testBigIntegerMax(BigInteger x, BigInteger y)</t>
+  </si>
+  <si>
+    <t>Method BigInteger testBigIntegerMin(BigInteger x, BigInteger y)</t>
+  </si>
+  <si>
+    <t>Method BigDecimal testBigDecimalMax(BigDecimal x, BigDecimal y)</t>
+  </si>
+  <si>
+    <t>Method BigDecimal testBigDecimalMin(BigDecimal x, BigDecimal y)</t>
+  </si>
+  <si>
+    <t>Method boolean[] testBooleanTypeAdd(boolean[] inArr, boolean el)</t>
+  </si>
+  <si>
+    <t>Method short[] testShortTypeAdd(short[] inArr, short el)</t>
+  </si>
+  <si>
+    <t>return add(inArr, el);</t>
+  </si>
+  <si>
+    <t>Method boolean[] testBooleanTypeAdd(boolean[] inArr, int pos, boolean el)</t>
+  </si>
+  <si>
+    <t>Method short[] testShortTypeAdd(short[] inArr, int pos, short el)</t>
+  </si>
+  <si>
+    <t>return add(inArr, pos, el);</t>
+  </si>
+  <si>
+    <t>Method byte[] testByteTypeAdd(byte[] inArr, byte el)</t>
+  </si>
+  <si>
+    <t>Method Object[] testObjectTypeAddIgnoreNulls(Object[] inArr, ObjectValue el)</t>
+  </si>
+  <si>
+    <t>return addIgnoreNull(inArr, el);</t>
+  </si>
+  <si>
+    <t>Method byte[] testByteTypeAdd(byte[] inArr, int pos, byte el)</t>
+  </si>
+  <si>
+    <t>Method Object[] testObjectTypeAddIgnoreNulls(Object[] inArr, int pos, ObjectValue el)</t>
+  </si>
+  <si>
+    <t>return addIgnoreNull(inArr, pos, el);</t>
+  </si>
+  <si>
+    <t>Method char[] testCharTypeAdd(char[] inArr, char el)</t>
+  </si>
+  <si>
+    <t>Method char[] testCharTypeAdd(char[] inArr, int pos, char el)</t>
+  </si>
+  <si>
+    <t>Method double[] testDoubleTypeAdd(double[] inArr, double el)</t>
+  </si>
+  <si>
+    <t>Method double[] testDoubleTypeAdd(double[] inArr, int pos, double el)</t>
+  </si>
+  <si>
+    <t>Method float[] testFloatTypeAdd(float[] inArr, float el)</t>
+  </si>
+  <si>
+    <t>Method float[] testFloatTypeAdd(float[] inArr, int pos, float el)</t>
+  </si>
+  <si>
+    <t>Method int[] testIntegerTypeAdd(int[] inArr, int el)</t>
+  </si>
+  <si>
+    <t>Method int[] testIntegerTypeAdd(int[] inArr, int pos, int el)</t>
+  </si>
+  <si>
+    <t>Method long[] testLongTypeAdd(long[] inArr, long el)</t>
+  </si>
+  <si>
+    <t>Method long[] testLongTypeAdd(long[] inArr, int pos, long el)</t>
+  </si>
+  <si>
+    <t>Method Object[] testObjectTypeAdd(Object[] inArr, ObjectValue el)</t>
+  </si>
+  <si>
+    <t>Method Object[] testObjectTypeAdd(Object[] inArr, int pos, ObjectValue el)</t>
+  </si>
+  <si>
+    <t>Method byte[] testByteTypeAddAll(byte[] inArr1, byte[] inArr2)</t>
+  </si>
+  <si>
+    <t>return addAll(inArr1, inArr2);</t>
+  </si>
+  <si>
+    <t>Method char[] testCharTypeAddAll(char[] inArr1, char[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method double[] testDoubleTypeAddAll(double[] inArr1, double[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method float[] testFloatTypeAddAll(float[] inArr1, float[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method int[] testIntegerTypeAddAll(int[] inArr1, int[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method long[] testLongTypeAddAll(long[] inArr1, long[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method Object[] testObjectAddAll(Object[] inArr1, Object[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method short[] testShortTypeAddAll(short[] inArr1, short[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method boolean[] testBooleanTypeAddAll(boolean[] inArr1, boolean[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method boolean[] testBooleanTypeRemove(boolean[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method boolean[] testBooleanTypeRemoveElement(boolean[] inArr,boolean el)</t>
+  </si>
+  <si>
+    <t>return remove(inArr, pos);</t>
+  </si>
+  <si>
+    <t>return removeElement(inArr, el);</t>
+  </si>
+  <si>
+    <t>Method byte[] testByteTypeRemove(byte[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method byte[] testByteTypeRemoveElement(byte[] inArr, byte el)</t>
+  </si>
+  <si>
+    <t>Method char[] testCharTypeRemove(char[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method char[] testCharTypeRemoveElement(char[] inArr, char el)</t>
+  </si>
+  <si>
+    <t>Method double[] testDoubleTypeRemove(double[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method double[] testDoubleTypeRemoveElement(double[] inArr, double el)</t>
+  </si>
+  <si>
+    <t>Method float[] testFloatTypeRemove(float[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method float[] testFloatTypeRemoveElement(float[] inArr, float el)</t>
+  </si>
+  <si>
+    <t>Method int[] testIntegerTypeRemove(int[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method int[] testIntegerTypeRemoveElement(int[] inArr, int el)</t>
+  </si>
+  <si>
+    <t>Method long[] testLongTypeRemove(long[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method long[] testLongTypeRemoveElement(long[] inArr, long el)</t>
+  </si>
+  <si>
+    <t>Method Object[] testObjectTypeRemove(Object[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method Object[] testObjectTypeRemoveElement(Object[] inArr, Object el)</t>
+  </si>
+  <si>
+    <t>Method short[] testShortTypeRemove(short[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method short[] testShortTypeRemoveElement(short[] inArr, short el)</t>
+  </si>
+  <si>
+    <t>Method boolean testObjectIsEmpty(Object[] inArr)</t>
+  </si>
+  <si>
+    <t>return isEmpty(inArr);</t>
+  </si>
+  <si>
+    <t>Method boolean testByteTypeIsEmpty(byte[] inArr)</t>
+  </si>
+  <si>
+    <t>Method boolean testCharTypeIsEmpty(char[] inArr)</t>
+  </si>
+  <si>
+    <t>Method boolean testShortTypeIsEmpty(short[] inArr)</t>
+  </si>
+  <si>
+    <t>Method boolean testIntegerTypeIsEmpty(int[] inArr)</t>
+  </si>
+  <si>
+    <t>Method boolean testLongTypeIsEmpty(long[] inArr)</t>
+  </si>
+  <si>
+    <t>Method boolean testFloatTypeIsEmpty(float[] inArr)</t>
+  </si>
+  <si>
+    <t>Method boolean testDateIsEmpty(Date[] inArr)</t>
+  </si>
+  <si>
+    <t>Method boolean testBigDecimalIsEmpty(BigDecimal[] inArr)</t>
+  </si>
+  <si>
+    <t>Method boolean testBigIntegerIsEmpty(BigInteger[] inArr)</t>
+  </si>
+  <si>
+    <t>Method boolean testStringIsEmpty(String[] inArr)</t>
+  </si>
+  <si>
+    <t>Method boolean testStartsWith(String str, String prefix)</t>
+  </si>
+  <si>
+    <t>return startsWith(str, prefix);</t>
+  </si>
+  <si>
+    <t>Method String testSubString(String str, int startIndex)</t>
+  </si>
+  <si>
+    <t>return substring(str, startIndex);</t>
+  </si>
+  <si>
+    <t>Method boolean testEndsWith(String str, String prefix)</t>
+  </si>
+  <si>
+    <t>return endsWith(str, prefix);</t>
+  </si>
+  <si>
+    <t>Method String testSubString(String str, int startIndex, int endIndex)</t>
+  </si>
+  <si>
+    <t>return substring(str, startIndex, endindex);</t>
+  </si>
+  <si>
+    <t>Method String testRemoveStart(String str, String prefix)</t>
+  </si>
+  <si>
+    <t>return removeStart(str, prefix);</t>
+  </si>
+  <si>
+    <t>Method String testRemoveEnd(String str, String prefix)</t>
+  </si>
+  <si>
+    <t>return removeEnd(str, prefix);</t>
+  </si>
+  <si>
+    <t>Method String testUpperCase(String str)</t>
+  </si>
+  <si>
+    <t>return upperCase(str);</t>
+  </si>
+  <si>
+    <t>Method String testLowerCase(String str)</t>
+  </si>
+  <si>
+    <t>return lowerCase(str);</t>
+  </si>
+  <si>
+    <t>Method String testReplace(String str, String whatReplace, String onReplace)</t>
+  </si>
+  <si>
+    <t>return replace(str, whatReplace, onReplace);</t>
+  </si>
+  <si>
+    <t>Method String testReplace(String str, String whatReplace, String onReplace, int replaceCount)</t>
+  </si>
+  <si>
+    <t>return replace(str, whatReplace, onReplace, replaceCount);</t>
+  </si>
+  <si>
+    <t>Method byte testByteTypeSmall(byte[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method byte testByteTypeBig(byte[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>return small(inArray, pos);</t>
+  </si>
+  <si>
+    <t>return big(inArray, pos);</t>
+  </si>
+  <si>
+    <t>Method short testShortTypeSmall(short[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method short testShortTypeBig(short[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method int testIntegerTypeSmall(int[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method int testIntegerTypeBig(int[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method long testLongTypeSmall(long[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method long testLongTypeBig(long[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method float testFloatTypeSmall(float[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method float testFloatTypeBig(float[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method double testDoubleTypeSmall(double[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method double testDoubleTypeBig(double[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method BigDecimal testBigDecimalSmall(BigDecimal[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method BigDecimal testBigDecimalBig(BigDecimal[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method BigInteger testBigIntegerSmall(BigInteger[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method BigInteger testBigIntegerBig(BigInteger[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method Byte testByteSmall(Byte[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method Byte testByteBig(Byte[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method Short testShortSmall(Short[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method Short testShortBig(Short[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method Integer testIntegerSmall(Integer[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method Integer testIntegerBig(Integer[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method Long testLongSmall(Long[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method Long testLongBig(Long[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method Float testFloatSmall(Float[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method Float testFloatBig(Float[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method Double testDoubleSmall(Double[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>Method Double testDoubleBig(Double[] inArray, int pos)</t>
   </si>
 </sst>
 </file>
@@ -1394,8 +1832,8 @@
   </sheetPr>
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B4" activeCellId="0" pane="topLeft" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2645,7 +3083,7 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="C28" activeCellId="0" pane="topLeft" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -2787,7 +3225,7 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="F21" activeCellId="0" pane="topLeft" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -2945,7 +3383,7 @@
   </sheetPr>
   <dimension ref="C7:C8"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="C8" activeCellId="0" pane="topLeft" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2982,10 +3420,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:B108"/>
+  <dimension ref="B2:B117"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A82" view="normal" windowProtection="false" workbookViewId="0" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100">
-      <selection activeCell="B108" activeCellId="0" pane="topLeft" sqref="B108"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A91" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B118" activeCellId="0" pane="topLeft" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3419,6 +3857,36 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="108">
       <c r="B108" s="13" t="s">
         <v>313</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="110">
+      <c r="B110" s="12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="111">
+      <c r="B111" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="113">
+      <c r="B113" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="114">
+      <c r="B114" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="116">
+      <c r="B116" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="117">
+      <c r="B117" s="13" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +3907,7 @@
   </sheetPr>
   <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3454,20 +3922,20 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
       <c r="B2" s="12" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="12" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
       <c r="B3" s="13" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="13" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
@@ -3477,20 +3945,20 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
       <c r="B5" s="12" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="12" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
       <c r="B6" s="13" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="13" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
@@ -3500,20 +3968,20 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
       <c r="B8" s="12" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="12" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
       <c r="B9" s="13" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="13" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
@@ -3523,20 +3991,20 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
       <c r="B11" s="12" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="12" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
       <c r="B12" s="13" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="13" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="13">
@@ -3546,20 +4014,20 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
       <c r="B14" s="12" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="12" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
       <c r="B15" s="13" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="13" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
@@ -3569,20 +4037,20 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
       <c r="B17" s="12" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="12" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
       <c r="B18" s="13" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="13" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="19">
@@ -3593,13 +4061,13 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
       <c r="C20" s="15"/>
       <c r="D20" s="12" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
       <c r="C21" s="15"/>
       <c r="D21" s="13" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="22">
@@ -3609,13 +4077,13 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
       <c r="C23" s="15"/>
       <c r="D23" s="12" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
       <c r="C24" s="15"/>
       <c r="D24" s="13" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27"/>
@@ -3650,62 +4118,62 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
       <c r="B3" s="12" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
       <c r="B4" s="13" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
       <c r="B6" s="12" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
       <c r="B7" s="13" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
       <c r="B9" s="12" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
       <c r="B10" s="13" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
       <c r="B12" s="12" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="13">
       <c r="B13" s="13" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
       <c r="B15" s="12" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
       <c r="B16" s="13" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
       <c r="B18" s="12" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="19">
       <c r="B19" s="13" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3739,92 +4207,92 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
       <c r="B3" s="12" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
       <c r="B4" s="13" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
       <c r="B6" s="12" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
       <c r="B7" s="13" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
       <c r="B9" s="12" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
       <c r="B10" s="13" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
       <c r="B12" s="12" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="13">
       <c r="B13" s="13" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
       <c r="B15" s="12" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
       <c r="B16" s="13" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
       <c r="B18" s="12" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="19">
       <c r="B19" s="13" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
       <c r="B21" s="12" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="22">
       <c r="B22" s="13" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
       <c r="B24" s="12" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="25">
       <c r="B25" s="13" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
       <c r="B27" s="12" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="28">
       <c r="B28" s="13" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3843,17 +4311,528 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B3:D31"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="B30" activeCellId="0" pane="topLeft" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.2704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.4540816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
+      <c r="B3" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
+      <c r="B4" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+      <c r="B6" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
+      <c r="B7" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
+      <c r="B9" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
+      <c r="B10" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
+      <c r="B12" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="13">
+      <c r="B13" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
+      <c r="B15" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
+      <c r="B16" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
+      <c r="B18" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="19">
+      <c r="B19" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
+      <c r="B21" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="22">
+      <c r="B22" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
+      <c r="B24" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="25">
+      <c r="B25" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
+      <c r="B27" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="28">
+      <c r="B28" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="29"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="30">
+      <c r="B30" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="31">
+      <c r="B31" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:D48"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.3"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.1683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.015306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
+      <c r="B2" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
+      <c r="B3" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
+      <c r="B5" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+      <c r="B6" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
+      <c r="B8" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
+      <c r="B9" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
+      <c r="B11" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
+      <c r="B12" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
+      <c r="B14" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
+      <c r="B15" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
+      <c r="B17" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
+      <c r="B18" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
+      <c r="B20" s="12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
+      <c r="B21" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
+      <c r="B23" s="12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
+      <c r="B24" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26">
+      <c r="B26" s="12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
+      <c r="B27" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="29">
+      <c r="B29" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="30">
+      <c r="B30" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="32">
+      <c r="B32" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="33">
+      <c r="B33" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="35">
+      <c r="B35" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="36">
+      <c r="B36" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="38">
+      <c r="B38" s="12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="39">
+      <c r="B39" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="41">
+      <c r="B41" s="12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="42">
+      <c r="B42" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="44">
+      <c r="B44" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="45">
+      <c r="B45" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="47">
+      <c r="B47" s="12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="48">
+      <c r="B48" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:B27"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B27" activeCellId="0" pane="topLeft" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.4540816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
+      <c r="B2" s="12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
+      <c r="B3" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
+      <c r="B5" s="12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+      <c r="B6" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
+      <c r="B8" s="12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
+      <c r="B9" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
+      <c r="B11" s="12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
+      <c r="B12" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
+      <c r="B14" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
+      <c r="B15" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
+      <c r="B17" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
+      <c r="B18" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
+      <c r="B20" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
+      <c r="B21" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
+      <c r="B23" s="12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
+      <c r="B24" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26">
+      <c r="B26" s="12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
+      <c r="B27" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
@@ -3871,7 +4850,7 @@
   </sheetPr>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="C4" activeCellId="0" pane="topLeft" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4098,6 +5077,715 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:D27"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.4948979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.5357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
+      <c r="B2" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
+      <c r="B3" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
+      <c r="B5" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+      <c r="B6" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
+      <c r="B8" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
+      <c r="B9" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
+      <c r="B11" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
+      <c r="B12" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
+      <c r="B14" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
+      <c r="B15" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
+      <c r="B17" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
+      <c r="B18" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
+      <c r="B20" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
+      <c r="B21" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
+      <c r="B23" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
+      <c r="B24" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26">
+      <c r="B26" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
+      <c r="B27" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:B33"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
+      <c r="B2" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
+      <c r="B3" s="13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
+      <c r="B5" s="12" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+      <c r="B6" s="13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
+      <c r="B8" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
+      <c r="B9" s="13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
+      <c r="B11" s="12" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
+      <c r="B12" s="13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
+      <c r="B14" s="12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
+      <c r="B15" s="13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
+      <c r="B17" s="12" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
+      <c r="B18" s="13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
+      <c r="B20" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
+      <c r="B21" s="13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
+      <c r="B23" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
+      <c r="B24" s="13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26">
+      <c r="B26" s="12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
+      <c r="B27" s="13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="29">
+      <c r="B29" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="30">
+      <c r="B30" s="13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="32">
+      <c r="B32" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="33">
+      <c r="B33" s="13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:B31"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.3"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.9081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
+      <c r="B2" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
+      <c r="B3" s="13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
+      <c r="B5" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+      <c r="B6" s="13" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
+      <c r="B8" s="12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
+      <c r="B9" s="13" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
+      <c r="B11" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
+      <c r="B12" s="13" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
+      <c r="B14" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
+      <c r="B15" s="13" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
+      <c r="B17" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
+      <c r="B18" s="13" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
+      <c r="B20" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
+      <c r="B21" s="13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
+      <c r="B23" s="12" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
+      <c r="B24" s="13" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26">
+      <c r="B26" s="12" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
+      <c r="B27" s="13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="29">
+      <c r="B29" s="12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="30">
+      <c r="B30" s="13" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:D42"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D20" activeCellId="0" pane="topLeft" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="65.4642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
+      <c r="B2" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
+      <c r="B3" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
+      <c r="B5" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+      <c r="B6" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
+      <c r="B8" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
+      <c r="B9" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
+      <c r="B11" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
+      <c r="B12" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
+      <c r="B14" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
+      <c r="B15" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
+      <c r="B17" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
+      <c r="B18" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
+      <c r="B20" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
+      <c r="B21" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
+      <c r="B23" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
+      <c r="B24" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26">
+      <c r="B26" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
+      <c r="B27" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="29">
+      <c r="B29" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="30">
+      <c r="B30" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="32">
+      <c r="B32" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="33">
+      <c r="B33" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="35">
+      <c r="B35" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="36">
+      <c r="B36" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="38">
+      <c r="B38" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="39">
+      <c r="B39" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="41">
+      <c r="B41" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="42">
+      <c r="B42" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -4105,7 +5793,7 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="C4" activeCellId="0" pane="topLeft" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4380,7 +6068,7 @@
   </sheetPr>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="C4" activeCellId="0" pane="topLeft" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4643,8 +6331,8 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100">
-      <selection activeCell="E3" activeCellId="0" pane="topLeft" sqref="E3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="D12" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E28" activeCellId="0" pane="topLeft" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4830,7 +6518,7 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="C3" activeCellId="0" pane="topLeft" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -4961,7 +6649,7 @@
   </sheetPr>
   <dimension ref="B3:B4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B3" activeCellId="0" pane="topLeft" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5000,7 +6688,7 @@
   </sheetPr>
   <dimension ref="B3:D7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B3" activeCellId="0" pane="topLeft" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5063,7 +6751,7 @@
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B36" activeCellId="0" pane="topLeft" sqref="B36"/>
     </sheetView>
   </sheetViews>
